--- a/Final Fase 2/Evidencias Proyecto/ANEXOS/Plan de prueba/Casos de Prueba.xlsx
+++ b/Final Fase 2/Evidencias Proyecto/ANEXOS/Plan de prueba/Casos de Prueba.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="c38GLzCr/SUlqai939mt+P346jEbfhjHfd8c+7Xxxm4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="4gl2zeMcj7olK2DUZ4j7kxDH4cFh1FSZPGJ3XxvRqSU="/>
     </ext>
   </extLst>
 </workbook>
@@ -21,7 +21,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="N30">
+    <comment authorId="0" ref="N32">
       <text>
         <t xml:space="preserve">======
 ID#AAABs86oaqw
@@ -29,7 +29,7 @@
 No se visualiza bien por la foto, pero se puede ver los 3 estados en los cual se encuentra el pedido del cliente</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H13">
+    <comment authorId="0" ref="H14">
       <text>
         <t xml:space="preserve">======
 ID#AAABsg_F5Ts
@@ -40,14 +40,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7migrPMaTKezZAxvEJmBa2k1ExkvSA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjvIyB4FEamrCK01ezjUtq0xaEM5g=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="211">
   <si>
     <t>CASOS DE PRUEBAS - [NMCollection]</t>
   </si>
@@ -88,58 +88,73 @@
     <t>0.1</t>
   </si>
   <si>
+    <t xml:space="preserve">Navbar </t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Ingresar a la pagina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninguno </t>
+  </si>
+  <si>
+    <t>Entrar a la pagina y navegar por las distintas opciones que nos entrega el "NavBar"</t>
+  </si>
+  <si>
+    <t>El usuario logra navegar por la pagina sin problema</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>Gestionar Perfil</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iniciar Sesion </t>
+  </si>
+  <si>
+    <t>El usuario al estar logueado puede cambiar su información, ya sean direcciones, ver pedidos, su información personal, y ver el logro del juego.</t>
+  </si>
+  <si>
+    <t>El usuario logra usar las interfaces</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>Ver mis Pedidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iniciar sesion </t>
+  </si>
+  <si>
+    <t>El usuario al estar logueado en la seecion de mi perfil en la seccion Mis Pedidos puede ver los pedidos que ha hecho y los que tienen pendientes de llegada</t>
+  </si>
+  <si>
+    <t>El usuario puede ver sus pedidos</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
     <t>Pagina Central</t>
   </si>
   <si>
-    <t>Alta</t>
-  </si>
-  <si>
-    <t>Ingresar a la pagina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninguno </t>
-  </si>
-  <si>
-    <t>Entrar a la pagina y navegar por las distintas opciones que nos entrega el "NavBar"</t>
-  </si>
-  <si>
-    <t>El usuario logra navegar por la pagina sin problema</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>Gestionar Perfil</t>
-  </si>
-  <si>
-    <t>Baja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iniciar Sesion </t>
-  </si>
-  <si>
-    <t>El usuario al estar logueado puede cambiar su información, ya sean direcciones, ver pedidos, su información personal, y ver el logro del juego.</t>
-  </si>
-  <si>
-    <t>El usuario logra usar las interfaces</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>Ver mis Pedidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iniciar sesion </t>
-  </si>
-  <si>
-    <t>El usuario al estar logueado en la seecion de mi perfil en la seccion Mis Pedidos puede ver los pedidos que ha hecho y los que tienen pendientes de llegada</t>
-  </si>
-  <si>
-    <t>El usuario puede ver sus pedidos</t>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>El usuario al entrar a la pagina se desplega la pagina central con un carro de imagenes que orienta al usuario a que seccion quiere derivarse</t>
+  </si>
+  <si>
+    <t>Que el usuario pueda navegar correctamente en la pagina</t>
   </si>
   <si>
     <t>AREA FUNCIONAL: Registrar Usuario</t>
@@ -178,9 +193,6 @@
     <t>Gestionar Borradores y cartas finalizadas</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
     <t xml:space="preserve">Estar logeado como usuario </t>
   </si>
   <si>
@@ -428,6 +440,246 @@
   </si>
   <si>
     <t>Que el administador o diseñador pueda utilizar la interfaz sin problema alguno</t>
+  </si>
+  <si>
+    <t>Visualizar reporte ventas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todo relacionado con lo monetario y metricas sobre las ventas </t>
+  </si>
+  <si>
+    <t>Se debe estar logueado como administrador, luego se debera ir al dashboard y seleccionar reportes, tras estar ahi se le mostrara un dashboard intuitivo que le enseñara todas las metricas de las ventas. Ademas de que se podran descargar en cualquiera de estos 3 opciones (CSV, PDF, Excel)</t>
+  </si>
+  <si>
+    <t>El administrador pueda ver las metricas y los informes para la toma de decisiones, ademas de que se puedan descargar en cualquier tipo de formato</t>
+  </si>
+  <si>
+    <t>AREA FUNCIONAL : Catalogo</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>Ver catalogo</t>
+  </si>
+  <si>
+    <t>Estar registrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninguno, solo debe estar registrado </t>
+  </si>
+  <si>
+    <t>Seleccionar Catalogo en el dashboard para su posterior navegacion</t>
+  </si>
+  <si>
+    <t>Poder ver todo el catalogo</t>
+  </si>
+  <si>
+    <t>Editar Productos</t>
+  </si>
+  <si>
+    <t>El usuario debe ser administrador o diseñador</t>
+  </si>
+  <si>
+    <t>Nombre, categoria, descripcion del produycto, precio base, stocl, tipo y estado, ademas de agregar imagenes de referencia del producto</t>
+  </si>
+  <si>
+    <t>Se debe ir al apartado de mi perfil y seleccionar PRODUCTOS para ver los productos a editar y como administrador agregar manualmente el producto con los datos de entrada</t>
+  </si>
+  <si>
+    <t>Que se logre editar el producto, guardando los cambios</t>
+  </si>
+  <si>
+    <t>Ver producto del catalogo</t>
+  </si>
+  <si>
+    <t>El usuario debe estar registrado en el sistema</t>
+  </si>
+  <si>
+    <t>Se debe ir al catalogo del sistema para seleccionar un producto de interes. Luego de seleccionarlo se veran las caracteristicas del producto</t>
+  </si>
+  <si>
+    <t>Que pueda ver le producto seleccionado</t>
+  </si>
+  <si>
+    <t>Carrito de compras</t>
+  </si>
+  <si>
+    <t>Muy alta</t>
+  </si>
+  <si>
+    <t>Debe estar registrado y selecciona productos disponibles del stock para agregar productos al carrito</t>
+  </si>
+  <si>
+    <t>Se debe ir al catalogo, agregar productos a su carrito para finalizar la compra se debe pagar mediante la integracion API de WEBPAY</t>
+  </si>
+  <si>
+    <t>Que se logre comprar correctamente el pedido</t>
+  </si>
+  <si>
+    <t>Mis pedidos (despues de realizar compras)</t>
+  </si>
+  <si>
+    <t>seleccionar mi perfil y dirigirse a mis pedidos para poder ver cuales son sus productos comprados, ademas de seleccionar el pedido para ver toda la informacion de este mismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que se logren mostrar los pedidos </t>
+  </si>
+  <si>
+    <t>Chat de Soporte</t>
+  </si>
+  <si>
+    <t>Seleccionar mi perfil y dirigirse al apartado de Soporte, luego se abrira una pestaña nueva con el chat de soporte con el diseñador o administrador</t>
+  </si>
+  <si>
+    <t>Que puedan comunicarse entre ambos usuarios ' administador o diseñador</t>
+  </si>
+  <si>
+    <t>Vista de administrador y todos los hilos del soporte</t>
+  </si>
+  <si>
+    <t>Agregar Producto</t>
+  </si>
+  <si>
+    <t>Seleccionar la opcion de catalogo  y seleccionar la opcion de mi perfil y seleciionar PRODUCTOS y se le redirigira a la pagina de Gestionar producto y se selecciona NUEVO PRODUCTO para la creacion del producto en stock</t>
+  </si>
+  <si>
+    <t>Que se logre agregar correctamente el producto al stock</t>
+  </si>
+  <si>
+    <t>Generacion de Voucher</t>
+  </si>
+  <si>
+    <t>el usuario debe haber realizado una compra en el sistema</t>
+  </si>
+  <si>
+    <t>Solo debe comprar un producto o mas</t>
+  </si>
+  <si>
+    <t>Se siguen los pasos de la compra del producto y luego se genera de manera automatica el voucher de compra en el correo electronico</t>
+  </si>
+  <si>
+    <t>Que se logre enviar al correo el voucher de compra</t>
+  </si>
+  <si>
+    <t>AREA FUNCIONAL : Aplicacion Movil</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>Visualizacion de catalogo de productos</t>
+  </si>
+  <si>
+    <t>El usuario debe haber iniciado sesion en la APP Movil</t>
+  </si>
+  <si>
+    <t>Debe estar logeado en la app</t>
+  </si>
+  <si>
+    <t>Ingresar su correo y contrasena para posteriormente seleccionart "Catalogo"</t>
+  </si>
+  <si>
+    <t>Que logre mostrar los productos en stock</t>
+  </si>
+  <si>
+    <t>Panel de control NMCollection</t>
+  </si>
+  <si>
+    <t>Ingresar con su cuenta a la APP para luego acceder a su panel y navegar en la aplicacion</t>
+  </si>
+  <si>
+    <t>Que logre navegar por la APP Movil</t>
+  </si>
+  <si>
+    <t>Mi Perfil</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Al ingresar los datos de la cuenta debe seleccionar "Perfil" para mostrar los datos asociados a su cuenta, tambien se pueden editar los datos en caso de errores</t>
+  </si>
+  <si>
+    <t>Que logre mostrar los datos del perfil y pueda editar los datos en caso de un error minimo</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>El usuario debe haber creado una cuenta en el sistema de NMCollection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correo electronico y Contrasena </t>
+  </si>
+  <si>
+    <t>Debe ingresar sus credenciales para acceder al sistema</t>
+  </si>
+  <si>
+    <t>Que logre iniciar sesion correctamente</t>
+  </si>
+  <si>
+    <t>Visualizar pedidos</t>
+  </si>
+  <si>
+    <t>El usuario debe ingresar a su cuenta  para luego seleccionar "Pedidos" y asi poder ver los detalleas de cada pedido que haya solicitado</t>
+  </si>
+  <si>
+    <t>Que logre ver los pedidos y sus detalles</t>
+  </si>
+  <si>
+    <t>Ver historial de pedidos Disenador</t>
+  </si>
+  <si>
+    <t>El usuario debe ser un administrador o disenador</t>
+  </si>
+  <si>
+    <t>El usuario debe ingresar su cuenta en la APP, ir a pedidos y visualizar todos los pedidos historicos de los clientes</t>
+  </si>
+  <si>
+    <t>Que se logren ver todos los pedidos</t>
+  </si>
+  <si>
+    <t>AREA FUNCIONAL : Tecnologia NFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subasta NFC </t>
+  </si>
+  <si>
+    <t>Se debe tener una cuenta e iniciar sesion, para luego realizar las pujas necesarias para ganar la carta NFC que será exclusiva dentro del mercado</t>
+  </si>
+  <si>
+    <t>Solo es necesario participar en una subasta</t>
+  </si>
+  <si>
+    <t>Ingresar los datos de entrada a la cuenta, para luego acceder al modulo de subastas y tener la posibilidad de participar en las subastas de productos NFC</t>
+  </si>
+  <si>
+    <t>Que el usuario logre ganar su carta NFC y exclusiva</t>
+  </si>
+  <si>
+    <t>Notifficacion Subasta Ganada</t>
+  </si>
+  <si>
+    <t>Se debe haber ganado una subasta</t>
+  </si>
+  <si>
+    <t>Solo es necesario de caso de haber ganado la subasta NFC</t>
+  </si>
+  <si>
+    <t>Posterior a la subasta, si el usuario ganó, se envia de manera automatica la notificacion al correo elec tronico informando que gano la subasta para que la carta sea pagada</t>
+  </si>
+  <si>
+    <t>Que se genere la notificacion automatica y se informe al cliente que debe pagar</t>
+  </si>
+  <si>
+    <t>Informacion Pedido NFC</t>
+  </si>
+  <si>
+    <t>Luego de recibir la notificacion de Subasta ganada se debe dar click en Pagar Ahora y lo deriva al apartado de pago</t>
+  </si>
+  <si>
+    <t>Que se logre derivar al apartado de pago y se pueda seguir agregando productos al carrito en caso de ser necesario para una posterior compra</t>
   </si>
 </sst>
 </file>
@@ -466,11 +718,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -485,6 +732,11 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans&quot;"/>
     </font>
   </fonts>
   <fills count="7">
@@ -546,12 +798,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -564,53 +816,66 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,47 +910,103 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8439150" cy="2743200"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image24.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8439150" cy="3076575"/>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image17.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3028950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8439150" cy="2876550"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image23.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8439150" cy="3038475"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image20.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7753350" cy="3076575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image13.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -704,16 +1025,44 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>3028950</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8439150" cy="2876550"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8467725" cy="2981325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image5.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8315325" cy="2162175"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image6.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -731,129 +1080,17 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8439150" cy="3038475"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7753350" cy="3076575"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8467725" cy="2981325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image26.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8315325" cy="2162175"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image22.jpg" title="Imagen"/>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2181225</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8467725" cy="2476500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image14.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2181225</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8467725" cy="2476500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image29.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -877,11 +1114,11 @@
     <xdr:ext cx="8277225" cy="1933575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
+        <xdr:cNvPr id="0" name="image21.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -899,17 +1136,17 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2724150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3857625" cy="2667000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
+        <xdr:cNvPr id="0" name="image19.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -927,17 +1164,17 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>3981450</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2724150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4486275" cy="2743200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
+        <xdr:cNvPr id="0" name="image4.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -955,17 +1192,17 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>2638425</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3095625" cy="5400675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
+        <xdr:cNvPr id="0" name="image9.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -983,7 +1220,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8191500" cy="2352675"/>
@@ -993,7 +1230,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
+        <a:blip cstate="print" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1011,17 +1248,17 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1485900</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6038850" cy="2743200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.png" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1045,39 +1282,11 @@
     <xdr:ext cx="8439150" cy="2162175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>5305425</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2133600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2609850" cy="2886075"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId16"/>
+        <xdr:cNvPr id="0" name="image27.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1095,45 +1304,17 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3400425" cy="2552700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4314825</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3486150" cy="2667000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId18"/>
+        <xdr:cNvPr id="0" name="image2.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1157,11 +1338,11 @@
     <xdr:ext cx="8277225" cy="2085975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId19"/>
+        <xdr:cNvPr id="0" name="image15.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1179,8 +1360,8 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>2619375</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3362325</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3095625" cy="3133725"/>
     <xdr:pic>
@@ -1189,7 +1370,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId20"/>
+        <a:blip cstate="print" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1207,17 +1388,17 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8562975" cy="2600325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId21"/>
+        <xdr:cNvPr id="0" name="image18.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1234,18 +1415,18 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3295650</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>2590800</xdr:rowOff>
+      <xdr:colOff>2876550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3333750</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4876800" cy="3162300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image27.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId22"/>
+        <xdr:cNvPr id="0" name="image10.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1262,18 +1443,18 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>8172450</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>2628900</xdr:rowOff>
+      <xdr:colOff>7753350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3619500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4876800" cy="3124200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId23"/>
+        <xdr:cNvPr id="0" name="image8.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1291,17 +1472,17 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>876300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1895475" cy="3438525"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId24"/>
+        <xdr:cNvPr id="0" name="image11.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1318,18 +1499,18 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2466975</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>428625</xdr:rowOff>
+      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3400425" cy="3886200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId25"/>
+        <xdr:cNvPr id="0" name="image3.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1347,17 +1528,17 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>5915025</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>1028700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4238625" cy="3124200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId26"/>
+        <xdr:cNvPr id="0" name="image12.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1375,17 +1556,17 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2514600" cy="4057650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image28.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId27"/>
+        <xdr:cNvPr id="0" name="image16.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1403,13 +1584,69 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>2076450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6515100" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image21.jpg" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image12.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3467100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6200775" cy="3314700"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image38.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1028700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5162550" cy="3162300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image47.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1429,19 +1666,859 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1400175</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6915150" cy="3648075"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image41.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6124575" cy="3076575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image51.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5676900" cy="2981325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image45.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6619875" cy="3581400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image43.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>904875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4124325" cy="3314700"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image22.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4448175</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>657225</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3943350" cy="3914775"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image28.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6686550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>3048000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3867150" cy="4267200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image24.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5705475" cy="3038475"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image39.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3190875" cy="2600325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image33.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3124200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8934450" cy="4124325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image29.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>3019425</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6810375" cy="3162300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image26.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2581275" cy="2886075"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.jpg" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId16"/>
+      <xdr:rowOff>2800350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6000750" cy="2247900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image53.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7410450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2800350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4333875" cy="1257300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image35.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4743450</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1943100" cy="3381375"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image32.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>3152775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3048000" cy="3228975"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image31.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2466975" cy="2800350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image30.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>3143250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2133600" cy="3076575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image42.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3609975</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>3133725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1943100" cy="3124200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image40.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>3124200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2600325" cy="3076575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image34.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1876425</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5457825" cy="2162175"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image37.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>2219325</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1771650" cy="3848100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image54.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7715250" cy="3038475"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image46.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4876800" cy="2333625"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image48.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1781175</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>2543175</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4876800" cy="2276475"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image36.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4629150" cy="2981325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image57.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7467600" cy="3238500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image55.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3762375" cy="2752725"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image49.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5962650" cy="2867025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image44.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8515350" cy="4543425"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image56.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6886575" cy="3181350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image50.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5543550" cy="3181350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image52.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId56"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1674,7 +2751,7 @@
     <col customWidth="1" min="7" max="7" width="17.14"/>
     <col customWidth="1" min="8" max="8" width="127.71"/>
     <col customWidth="1" min="9" max="9" width="14.0"/>
-    <col customWidth="1" min="10" max="10" width="15.71"/>
+    <col customWidth="1" min="10" max="10" width="92.14"/>
     <col customWidth="1" min="11" max="26" width="10.86"/>
   </cols>
   <sheetData>
@@ -1790,7 +2867,7 @@
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1802,17 +2879,18 @@
       <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1845,13 +2923,13 @@
       <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1874,28 +2952,28 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" ht="157.5" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1917,18 +2995,30 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" ht="36.0" customHeight="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" ht="157.5" customHeight="1">
+      <c r="A7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="B7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1947,32 +3037,18 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" ht="171.75" customHeight="1">
-      <c r="A8" s="14">
-        <v>45658.0</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="3" t="s">
-        <v>19</v>
-      </c>
+    <row r="8" ht="36.0" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1991,12 +3067,12 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" ht="201.0" customHeight="1">
-      <c r="A9" s="14">
-        <v>45689.0</v>
+    <row r="9" ht="171.75" customHeight="1">
+      <c r="A9" s="15">
+        <v>45658.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>14</v>
@@ -2007,12 +3083,13 @@
       <c r="E9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="H9" s="10"/>
       <c r="I9" s="3" t="s">
         <v>19</v>
       </c>
@@ -2034,18 +3111,31 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+    <row r="10" ht="201.0" customHeight="1">
+      <c r="A10" s="15">
+        <v>45689.0</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -2064,32 +3154,18 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" ht="216.75" customHeight="1">
-      <c r="A11" s="15">
-        <v>45659.0</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="7" t="s">
+    <row r="11">
+      <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -2109,28 +3185,28 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" ht="216.75" customHeight="1">
-      <c r="A12" s="15">
-        <v>45690.0</v>
+      <c r="A12" s="16">
+        <v>45659.0</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="3" t="s">
         <v>19</v>
       </c>
@@ -2152,29 +3228,29 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" ht="189.0" customHeight="1">
-      <c r="A13" s="15">
-        <v>45718.0</v>
+    <row r="13" ht="216.75" customHeight="1">
+      <c r="A13" s="16">
+        <v>45690.0</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="3" t="s">
         <v>19</v>
       </c>
@@ -2196,17 +3272,19 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" ht="225.0" customHeight="1">
-      <c r="A14" s="15">
-        <v>45749.0</v>
+    <row r="14" ht="189.0" customHeight="1">
+      <c r="A14" s="16">
+        <v>45718.0</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="17"/>
       <c r="E14" s="7" t="s">
         <v>59</v>
       </c>
@@ -2216,7 +3294,7 @@
       <c r="G14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
         <v>19</v>
       </c>
@@ -2238,29 +3316,27 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" ht="168.75" customHeight="1">
-      <c r="A15" s="15">
-        <v>45779.0</v>
+    <row r="15" ht="225.0" customHeight="1">
+      <c r="A15" s="16">
+        <v>45749.0</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="3" t="s">
         <v>19</v>
       </c>
@@ -2282,29 +3358,29 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" ht="164.25" customHeight="1">
-      <c r="A16" s="15">
-        <v>45810.0</v>
+    <row r="16" ht="168.75" customHeight="1">
+      <c r="A16" s="16">
+        <v>45779.0</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="3" t="s">
         <v>19</v>
       </c>
@@ -2327,29 +3403,31 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" ht="164.25" customHeight="1">
-      <c r="A17" s="15">
-        <v>45840.0</v>
+      <c r="A17" s="16">
+        <v>45810.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2369,28 +3447,28 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" ht="164.25" customHeight="1">
-      <c r="A18" s="15">
-        <v>45871.0</v>
+      <c r="A18" s="16">
+        <v>45840.0</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="16"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -2410,17 +3488,29 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" ht="20.25" customHeight="1">
-      <c r="A19" s="18" t="s">
+    <row r="19" ht="164.25" customHeight="1">
+      <c r="A19" s="16">
+        <v>45871.0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="D19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="17"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -2440,32 +3530,18 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" ht="240.0" customHeight="1">
-      <c r="A20" s="15">
-        <v>45660.0</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="7" t="s">
+    <row r="20" ht="20.25" customHeight="1">
+      <c r="A20" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -2484,29 +3560,29 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" ht="225.75" customHeight="1">
-      <c r="A21" s="15">
-        <v>45691.0</v>
+    <row r="21" ht="240.0" customHeight="1">
+      <c r="A21" s="16">
+        <v>45660.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="16"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="3" t="s">
         <v>19</v>
       </c>
@@ -2529,28 +3605,28 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" ht="225.75" customHeight="1">
-      <c r="A22" s="15">
-        <v>45719.0</v>
+      <c r="A22" s="16">
+        <v>45691.0</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="16"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="3" t="s">
         <v>19</v>
       </c>
@@ -2572,29 +3648,29 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" ht="258.0" customHeight="1">
-      <c r="A23" s="15">
-        <v>45750.0</v>
+    <row r="23" ht="225.75" customHeight="1">
+      <c r="A23" s="16">
+        <v>45719.0</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="16"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2617,29 +3693,29 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" ht="258.0" customHeight="1">
-      <c r="A24" s="15">
-        <v>45780.0</v>
+      <c r="A24" s="16">
+        <v>45750.0</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="12" t="s">
+      <c r="H24" s="17"/>
+      <c r="I24" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J24" s="3"/>
@@ -2661,20 +3737,20 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" ht="258.0" customHeight="1">
-      <c r="A25" s="15">
-        <v>45811.0</v>
+      <c r="A25" s="16">
+        <v>45780.0</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>110</v>
@@ -2682,8 +3758,8 @@
       <c r="G25" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="12" t="s">
+      <c r="H25" s="17"/>
+      <c r="I25" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="3"/>
@@ -2704,19 +3780,33 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26">
-      <c r="A26" s="19" t="s">
+    <row r="26" ht="258.0" customHeight="1">
+      <c r="A26" s="16">
+        <v>45811.0</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
+      <c r="C26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -2734,33 +3824,17 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" ht="240.75" customHeight="1">
-      <c r="A27" s="15">
-        <v>45662.0</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="3"/>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2778,33 +3852,19 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" ht="240.75" customHeight="1">
-      <c r="A28" s="15">
-        <v>45693.0</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="3"/>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -2822,30 +3882,30 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" ht="250.5" customHeight="1">
-      <c r="A29" s="15">
-        <v>45721.0</v>
+    <row r="29" ht="240.75" customHeight="1">
+      <c r="A29" s="16">
+        <v>45662.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H29" s="22"/>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J29" s="3"/>
@@ -2853,6 +3913,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -2865,28 +3926,32 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" ht="250.5" customHeight="1">
-      <c r="A30" s="15"/>
+    <row r="30" ht="240.75" customHeight="1">
+      <c r="A30" s="16">
+        <v>45693.0</v>
+      </c>
       <c r="B30" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H30" s="22"/>
-      <c r="I30" s="24"/>
+      <c r="I30" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2905,56 +3970,1022 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
+    <row r="31" ht="312.0" customHeight="1">
+      <c r="A31" s="16">
+        <v>45721.0</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" ht="307.5" customHeight="1">
+      <c r="A32" s="25">
+        <v>45752.0</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" ht="549.0" customHeight="1">
+      <c r="A33" s="25">
+        <v>45782.0</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" s="23"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" ht="250.5" customHeight="1">
+      <c r="A35" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" ht="452.25" customHeight="1">
+      <c r="A36" s="25">
+        <v>45663.0</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" s="23"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" ht="250.5" customHeight="1">
+      <c r="A37" s="25">
+        <v>45694.0</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" ht="348.75" customHeight="1">
+      <c r="A38" s="25">
+        <v>45722.0</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H38" s="23"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+    </row>
+    <row r="39" ht="423.75" customHeight="1">
+      <c r="A39" s="25">
+        <v>45753.0</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H39" s="23"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" ht="253.5" customHeight="1">
+      <c r="A40" s="25">
+        <v>45783.0</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" ht="250.5" customHeight="1">
+      <c r="A41" s="25">
+        <v>45814.0</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="I41" s="26"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+    </row>
+    <row r="42" ht="250.5" customHeight="1">
+      <c r="A42" s="25">
+        <v>45844.0</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" ht="250.5" customHeight="1">
+      <c r="A43" s="25">
+        <v>45875.0</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+    </row>
+    <row r="45" ht="250.5" customHeight="1">
+      <c r="A45" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+    </row>
+    <row r="46" ht="250.5" customHeight="1">
+      <c r="A46" s="25">
+        <v>45664.0</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+    </row>
+    <row r="47" ht="250.5" customHeight="1">
+      <c r="A47" s="25">
+        <v>45695.0</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+    </row>
+    <row r="48" ht="250.5" customHeight="1">
+      <c r="A48" s="25">
+        <v>45723.0</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+    </row>
+    <row r="49" ht="250.5" customHeight="1">
+      <c r="A49" s="25">
+        <v>45754.0</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" ht="250.5" customHeight="1">
+      <c r="A50" s="25">
+        <v>45784.0</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="A51" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+    </row>
+    <row r="52" ht="399.0" customHeight="1">
+      <c r="A52" s="25">
+        <v>45815.0</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+    </row>
+    <row r="53" ht="250.5" customHeight="1">
+      <c r="A53" s="25">
+        <v>45845.0</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+    </row>
+    <row r="54" ht="250.5" customHeight="1">
+      <c r="A54" s="25">
+        <v>45876.0</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A51:H51"/>
   </mergeCells>
-  <conditionalFormatting sqref="I4:I5 I8:I9">
+  <conditionalFormatting sqref="I4:I5 I9:I10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"FALLO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I5 I8:I9">
+  <conditionalFormatting sqref="I4:I5 I9:I10">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I18">
+  <conditionalFormatting sqref="I12:I19">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"FALLO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I18">
+  <conditionalFormatting sqref="I12:I19">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I25">
+  <conditionalFormatting sqref="I21:I26">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"FALLO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I25">
+  <conditionalFormatting sqref="I21:I26">
     <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I28">
+  <conditionalFormatting sqref="I27:I30 I34 I44 I51">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"FALLO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I28">
+  <conditionalFormatting sqref="I27:I30 I34 I44 I51">
     <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I4:I6 I8:I9 I11:I18 I20:I25 I27:I28">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I4:I7 I9:I10 I12:I19 I21:I26 I29:I30">
       <formula1>$M$1:$M$2</formula1>
     </dataValidation>
   </dataValidations>
